--- a/legislator/property/output/normal/潘维剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘维剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
   <si>
     <t>土地坐落</t>
   </si>
@@ -208,7 +208,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>力宇創業投資股份有限公 司.</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
   </si>
   <si>
     <t>名稱</t>
@@ -829,22 +841,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -855,19 +867,19 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -878,19 +890,19 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -901,19 +913,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -924,19 +936,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1460,13 +1472,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1485,13 +1497,22 @@
       <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -1508,6 +1529,13 @@
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,25 +1552,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1550,13 +1578,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1568,7 +1596,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1586,22 +1614,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1609,14 +1637,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1626,22 +1654,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1659,13 +1687,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1673,10 +1701,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
@@ -1687,13 +1715,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1701,10 +1729,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1725,22 +1753,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1748,22 +1776,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1771,22 +1799,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
